--- a/data/202201_example_roster.xlsx
+++ b/data/202201_example_roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\simon\repos\roster2cal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFCB57E-874B-4AA6-82D2-EF01FCF01333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA49686-05CE-41A4-9675-C63E9272D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="867" yWindow="-93" windowWidth="24826" windowHeight="16186" xr2:uid="{05C97F89-779F-4F2A-B5A0-EB1F588C86C4}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Summe Zeitkonten 18</t>
   </si>
   <si>
-    <t>Entwurf, 12.11.2021  Lä</t>
-  </si>
-  <si>
     <t>SA 01</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>Intensivbereiche Ärzte</t>
+  </si>
+  <si>
+    <t>Entwurf, 12.11.2021</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1295,7 +1295,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1324,101 +1324,101 @@
     </row>
     <row r="2" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="AH2" s="11"/>
       <c r="AI2" s="12"/>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="3" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -1466,27 +1466,27 @@
     </row>
     <row r="4" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
@@ -1494,10 +1494,10 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
@@ -1505,10 +1505,10 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
       <c r="X4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
@@ -1516,130 +1516,130 @@
       <c r="AC4" s="21"/>
       <c r="AD4" s="21"/>
       <c r="AE4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG4" s="21"/>
       <c r="AH4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="AI4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ4" s="24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="19">
         <v>-11.76</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="AI5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH5" s="22" t="s">
+      <c r="AJ5" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="AI5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ5" s="24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1682,112 +1682,112 @@
     </row>
     <row r="7" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="32">
         <v>58.91</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="AI7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="35" t="s">
+      <c r="AJ7" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="P7" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="X7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH7" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI7" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ7" s="38" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1830,112 +1830,112 @@
     </row>
     <row r="9" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="32">
         <v>22.52</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH9" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA9" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE9" s="41" t="s">
+      <c r="AI9" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AF9" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG9" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH9" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI9" s="37" t="s">
+      <c r="AJ9" s="38" t="s">
         <v>58</v>
-      </c>
-      <c r="AJ9" s="38" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1978,112 +1978,112 @@
     </row>
     <row r="11" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A11" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="32">
         <v>6.19</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="34" t="s">
+      <c r="Y11" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="34" t="s">
+      <c r="Z11" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="34" t="s">
+      <c r="AA11" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC11" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE11" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF11" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="X11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG11" s="39" t="s">
-        <v>53</v>
-      </c>
       <c r="AH11" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI11" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AI11" s="37" t="s">
+      <c r="AJ11" s="38" t="s">
         <v>62</v>
-      </c>
-      <c r="AJ11" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2126,112 +2126,112 @@
     </row>
     <row r="13" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="C13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE13" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF13" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH13" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI13" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="V13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="W13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="X13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA13" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB13" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD13" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE13" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF13" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH13" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="37" t="s">
+      <c r="AJ13" s="38" t="s">
         <v>66</v>
-      </c>
-      <c r="AJ13" s="38" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2274,112 +2274,112 @@
     </row>
     <row r="15" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="C15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>70</v>
-      </c>
       <c r="J15" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X15" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y15" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE15" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF15" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH15" s="36">
         <v>18</v>
       </c>
       <c r="AI15" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ15" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="AJ15" s="38" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2422,112 +2422,112 @@
     </row>
     <row r="17" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="C17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB17" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC17" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH17" s="36" t="s">
         <v>74</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="U17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="V17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="W17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="X17" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y17" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA17" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB17" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC17" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH17" s="36" t="s">
-        <v>75</v>
       </c>
       <c r="AI17" s="37">
         <v>15</v>
       </c>
       <c r="AJ17" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2570,112 +2570,112 @@
     </row>
     <row r="19" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="C19" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z19" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD19" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG19" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH19" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="U19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="V19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="W19" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="X19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z19" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD19" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG19" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH19" s="36" t="s">
+      <c r="AI19" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AI19" s="37" t="s">
+      <c r="AJ19" s="38" t="s">
         <v>80</v>
-      </c>
-      <c r="AJ19" s="38" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2718,112 +2718,112 @@
     </row>
     <row r="21" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>83</v>
-      </c>
       <c r="C21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="34" t="s">
+      <c r="N21" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="34" t="s">
+      <c r="O21" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE21" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="U21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="V21" s="34" t="s">
+      <c r="AF21" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="W21" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="X21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE21" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF21" s="40" t="s">
-        <v>56</v>
-      </c>
       <c r="AG21" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH21" s="36">
         <v>18</v>
       </c>
       <c r="AI21" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ21" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="AJ21" s="38" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2866,101 +2866,101 @@
     </row>
     <row r="23" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A23" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="M23" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="N23" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="V23" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="W23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="X23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z23" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA23" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD23" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE23" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="V23" s="34" t="s">
+      <c r="AF23" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="W23" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="X23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z23" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA23" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD23" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE23" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF23" s="33" t="s">
-        <v>54</v>
-      </c>
       <c r="AG23" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH23" s="36"/>
       <c r="AI23" s="37"/>
@@ -3006,112 +3006,112 @@
     </row>
     <row r="25" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="C25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="F25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="T25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="U25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="W25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="X25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC25" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD25" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE25" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH25" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="AI25" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="T25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="V25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="W25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC25" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD25" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE25" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH25" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI25" s="37" t="s">
+      <c r="AJ25" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="AJ25" s="38" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3154,112 +3154,112 @@
     </row>
     <row r="27" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A27" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="C27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="34" t="s">
+      <c r="P27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="V27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="W27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF27" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG27" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="O27" s="43" t="s">
+      <c r="AH27" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI27" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="U27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="V27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="W27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="X27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF27" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG27" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH27" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI27" s="37" t="s">
+      <c r="AJ27" s="38" t="s">
         <v>97</v>
-      </c>
-      <c r="AJ27" s="38" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3302,112 +3302,112 @@
     </row>
     <row r="29" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="C29" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="W29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="X29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH29" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="T29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="U29" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="V29" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="X29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z29" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA29" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH29" s="36" t="s">
+      <c r="AI29" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="AI29" s="37" t="s">
+      <c r="AJ29" s="38" t="s">
         <v>102</v>
-      </c>
-      <c r="AJ29" s="38" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3450,112 +3450,112 @@
     </row>
     <row r="31" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A31" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="C31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y31" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z31" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA31" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB31" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG31" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH31" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI31" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="N31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="P31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="U31" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="V31" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="W31" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="X31" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y31" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z31" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA31" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB31" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG31" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH31" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI31" s="37" t="s">
+      <c r="AJ31" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="AJ31" s="38" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3598,112 +3598,112 @@
     </row>
     <row r="33" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A33" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="C33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T33" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="U33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="W33" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="X33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD33" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF33" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH33" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI33" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="N33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T33" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="U33" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="V33" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="W33" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="X33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD33" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF33" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH33" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI33" s="37" t="s">
+      <c r="AJ33" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="AJ33" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3746,112 +3746,112 @@
     </row>
     <row r="35" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A35" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="C35" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="S35" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="U35" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="V35" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB35" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC35" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD35" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG35" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH35" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI35" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ35" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="N35" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="O35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="P35" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q35" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="R35" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="S35" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="T35" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="U35" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="V35" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="W35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="X35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB35" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC35" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD35" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF35" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG35" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH35" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI35" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ35" s="38" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3894,112 +3894,112 @@
     </row>
     <row r="37" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A37" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="C37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q37" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R37" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="S37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U37" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="V37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z37" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA37" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD37" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH37" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI37" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ37" s="38" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="O37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q37" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="R37" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="S37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="U37" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="V37" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="W37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="X37" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y37" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z37" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA37" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB37" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC37" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD37" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE37" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF37" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH37" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI37" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ37" s="38" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -4042,112 +4042,112 @@
     </row>
     <row r="39" spans="1:36" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="A39" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="C39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="T39" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="U39" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="X39" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y39" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD39" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG39" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH39" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI39" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q39" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="R39" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="S39" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="T39" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="U39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="V39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="W39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="X39" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y39" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE39" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF39" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG39" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH39" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI39" s="37" t="s">
+      <c r="AJ39" s="38" t="s">
         <v>120</v>
-      </c>
-      <c r="AJ39" s="38" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:36" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -4192,97 +4192,97 @@
       <c r="A41" s="44"/>
       <c r="B41" s="45"/>
       <c r="C41" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="E41" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="F41" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="G41" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="H41" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="I41" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="47" t="s">
+      <c r="J41" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="47" t="s">
+      <c r="K41" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="47" t="s">
+      <c r="L41" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="47" t="s">
+      <c r="M41" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="47" t="s">
+      <c r="N41" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="47" t="s">
+      <c r="O41" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="47" t="s">
+      <c r="P41" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="P41" s="47" t="s">
+      <c r="Q41" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q41" s="47" t="s">
+      <c r="R41" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="R41" s="47" t="s">
+      <c r="S41" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="S41" s="47" t="s">
+      <c r="T41" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="T41" s="47" t="s">
+      <c r="U41" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="U41" s="47" t="s">
+      <c r="V41" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="V41" s="47" t="s">
+      <c r="W41" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="W41" s="47" t="s">
+      <c r="X41" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="X41" s="47" t="s">
+      <c r="Y41" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Y41" s="47" t="s">
+      <c r="Z41" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="Z41" s="47" t="s">
+      <c r="AA41" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="AA41" s="47" t="s">
+      <c r="AB41" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AB41" s="47" t="s">
+      <c r="AC41" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AC41" s="47" t="s">
+      <c r="AD41" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="47" t="s">
+      <c r="AE41" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AE41" s="47" t="s">
+      <c r="AF41" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AF41" s="47" t="s">
+      <c r="AG41" s="48" t="s">
         <v>39</v>
-      </c>
-      <c r="AG41" s="48" t="s">
-        <v>40</v>
       </c>
       <c r="AH41" s="49"/>
       <c r="AI41" s="44"/>
